--- a/Assets/Resources/DataSet/PlayerData.xlsx
+++ b/Assets/Resources/DataSet/PlayerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\Adven\Assets\Resources\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53903B70-76B7-45EA-8B38-9C86EABD9296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7083DAD-AD93-4072-99DE-EC9484562E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>플레이어 4</t>
+  </si>
+  <si>
+    <t>resourcesPath</t>
+  </si>
+  <si>
+    <t>Character/10001</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -436,7 +442,7 @@
     <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,8 +461,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -475,8 +484,11 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -495,8 +507,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -515,8 +530,11 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -535,8 +553,11 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -544,7 +565,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -552,7 +573,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -560,7 +581,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -568,7 +589,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -576,7 +597,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -584,7 +605,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -592,7 +613,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,7 +621,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -608,7 +629,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -616,7 +637,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Assets/Resources/DataSet/PlayerData.xlsx
+++ b/Assets/Resources/DataSet/PlayerData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\Adven\Assets\Resources\DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\104_19\Adven\Assets\Resources\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7083DAD-AD93-4072-99DE-EC9484562E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,29 +50,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 2</t>
-  </si>
-  <si>
-    <t>플레이어 3</t>
-  </si>
-  <si>
-    <t>플레이어 4</t>
-  </si>
-  <si>
     <t>resourcesPath</t>
   </si>
   <si>
-    <t>Character/10001</t>
+    <t>Character/Die2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/kal1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Rat2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Tie2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이네</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리오스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라토나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티에리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,11 +443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -462,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -470,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>450</v>
@@ -485,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -493,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>450</v>
@@ -508,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -516,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>450</v>
@@ -531,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -539,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>450</v>
@@ -554,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">

--- a/Assets/Resources/DataSet/PlayerData.xlsx
+++ b/Assets/Resources/DataSet/PlayerData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\104_19\Adven\Assets\Resources\DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ycys5\Adven\Assets\Resources\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCADBF1A-698A-4418-800E-CD9D809C214F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
